--- a/시나리오테스트.xlsx
+++ b/시나리오테스트.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Number</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>로그인 버튼 선택</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>입력확인</t>
   </si>
 </sst>
 </file>
@@ -87,8 +93,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="테스트 결과" displayName="테스트 결과" ref="A1:C3" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:C3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="테스트 결과" displayName="테스트 결과" ref="A1:C4" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:C4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,6 +463,17 @@
         <v>6</v>
       </c>
       <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
         <v>1</v>
       </c>
     </row>
